--- a/workfile/xylink/小鱼项目计划书.xlsx
+++ b/workfile/xylink/小鱼项目计划书.xlsx
@@ -456,16 +456,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1997000</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>1968425</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -482,7 +482,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="10115550"/>
+          <a:off x="657225" y="10010775"/>
           <a:ext cx="7921550" cy="3809999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1213,7 +1213,7 @@
   <dimension ref="B2:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/workfile/xylink/小鱼项目计划书.xlsx
+++ b/workfile/xylink/小鱼项目计划书.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="20190417" sheetId="2" r:id="rId2"/>
+    <sheet name="20190418" sheetId="3" r:id="rId3"/>
+    <sheet name="20190419" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>完成百分比</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +234,50 @@
   </si>
   <si>
     <t>早9：30到晚6：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改逻辑取累计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分摊明细表钻取到基础数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分摊明细表和基础数据出累计总额及未摊销结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾差处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加系统水印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl相关文档编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付文档编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼易联云服务数据处理相关逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼易联云服务模块交付文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作时间：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早8：20至晚5：30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H25"/>
+  <dimension ref="B3:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1201,6 +1247,38 @@
         <v>43572</v>
       </c>
     </row>
+    <row r="27" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C27" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3">
+        <v>43573</v>
+      </c>
+      <c r="H27" s="3">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C28" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3">
+        <v>43573</v>
+      </c>
+      <c r="H28" s="3">
+        <v>43574</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1212,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1375,4 +1453,296 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="30.25" customWidth="1"/>
+    <col min="5" max="5" width="37.875" customWidth="1"/>
+    <col min="6" max="6" width="33.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="10" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="30.25" customWidth="1"/>
+    <col min="5" max="5" width="37.875" customWidth="1"/>
+    <col min="6" max="6" width="33.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>